--- a/Labs/PHYS 295/Lab 1/PHYS 295 L1- Dart Throws.xlsx
+++ b/Labs/PHYS 295/Lab 1/PHYS 295 L1- Dart Throws.xlsx
@@ -7,7 +7,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CC525E-8FC1-47D5-B5B7-4ABCBAA529BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FE263B-E7BF-46EB-B97F-B53C02E574F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
